--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ifnk-Ifnar2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ifnk-Ifnar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ifnar2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.746305</v>
+        <v>0.2027413333333333</v>
       </c>
       <c r="H2">
-        <v>2.238915</v>
+        <v>0.608224</v>
       </c>
       <c r="I2">
-        <v>0.6851484233490556</v>
+        <v>0.1911300550679205</v>
       </c>
       <c r="J2">
-        <v>0.6851484233490555</v>
+        <v>0.1911300550679204</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.47224833333333</v>
+        <v>27.85292233333333</v>
       </c>
       <c r="N2">
-        <v>70.41674499999999</v>
+        <v>83.55876699999999</v>
       </c>
       <c r="O2">
-        <v>0.1175941830038274</v>
+        <v>0.1175699887262562</v>
       </c>
       <c r="P2">
-        <v>0.1175941830038274</v>
+        <v>0.1175699887262562</v>
       </c>
       <c r="Q2">
-        <v>17.51745629240833</v>
+        <v>5.646938611089777</v>
       </c>
       <c r="R2">
-        <v>157.657106631675</v>
+        <v>50.82244749980799</v>
       </c>
       <c r="S2">
-        <v>0.08056946908009265</v>
+        <v>0.02247115841958414</v>
       </c>
       <c r="T2">
-        <v>0.08056946908009265</v>
+        <v>0.02247115841958413</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.746305</v>
+        <v>0.2027413333333333</v>
       </c>
       <c r="H3">
-        <v>2.238915</v>
+        <v>0.608224</v>
       </c>
       <c r="I3">
-        <v>0.6851484233490556</v>
+        <v>0.1911300550679205</v>
       </c>
       <c r="J3">
-        <v>0.6851484233490555</v>
+        <v>0.1911300550679204</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>79.98248000000001</v>
       </c>
       <c r="O3">
-        <v>0.1335687184947269</v>
+        <v>0.1125380329259528</v>
       </c>
       <c r="P3">
-        <v>0.1335687184947269</v>
+        <v>0.1125380329259528</v>
       </c>
       <c r="Q3">
-        <v>19.89710824546667</v>
+        <v>5.405251546168889</v>
       </c>
       <c r="R3">
-        <v>179.0739742092</v>
+        <v>48.64726391552001</v>
       </c>
       <c r="S3">
-        <v>0.09151439688541597</v>
+        <v>0.0215094004303728</v>
       </c>
       <c r="T3">
-        <v>0.09151439688541596</v>
+        <v>0.0215094004303728</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.746305</v>
+        <v>0.2027413333333333</v>
       </c>
       <c r="H4">
-        <v>2.238915</v>
+        <v>0.608224</v>
       </c>
       <c r="I4">
-        <v>0.6851484233490556</v>
+        <v>0.1911300550679205</v>
       </c>
       <c r="J4">
-        <v>0.6851484233490555</v>
+        <v>0.1911300550679204</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>67.28694033333333</v>
+        <v>105.665011</v>
       </c>
       <c r="N4">
-        <v>201.860821</v>
+        <v>316.995033</v>
       </c>
       <c r="O4">
-        <v>0.3371024651306568</v>
+        <v>0.4460226472237104</v>
       </c>
       <c r="P4">
-        <v>0.3371024651306568</v>
+        <v>0.4460226472237104</v>
       </c>
       <c r="Q4">
-        <v>50.21658000546833</v>
+        <v>21.42266521682133</v>
       </c>
       <c r="R4">
-        <v>451.9492200492149</v>
+        <v>192.803986951392</v>
       </c>
       <c r="S4">
-        <v>0.2309652224913495</v>
+        <v>0.08524833312540744</v>
       </c>
       <c r="T4">
-        <v>0.2309652224913494</v>
+        <v>0.08524833312540743</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.746305</v>
+        <v>0.2027413333333333</v>
       </c>
       <c r="H5">
-        <v>2.238915</v>
+        <v>0.608224</v>
       </c>
       <c r="I5">
-        <v>0.6851484233490556</v>
+        <v>0.1911300550679205</v>
       </c>
       <c r="J5">
-        <v>0.6851484233490555</v>
+        <v>0.1911300550679204</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.116759333333333</v>
+        <v>4.883238666666666</v>
       </c>
       <c r="N5">
-        <v>15.350278</v>
+        <v>14.649716</v>
       </c>
       <c r="O5">
-        <v>0.02563457598461312</v>
+        <v>0.02061264193813266</v>
       </c>
       <c r="P5">
-        <v>0.02563457598461312</v>
+        <v>0.02061264193813266</v>
       </c>
       <c r="Q5">
-        <v>3.818663074263333</v>
+        <v>0.9900343182648887</v>
       </c>
       <c r="R5">
-        <v>34.36796766837</v>
+        <v>8.910308864384</v>
       </c>
       <c r="S5">
-        <v>0.01756348931907924</v>
+        <v>0.003939695388730622</v>
       </c>
       <c r="T5">
-        <v>0.01756348931907924</v>
+        <v>0.003939695388730622</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.746305</v>
+        <v>0.2027413333333333</v>
       </c>
       <c r="H6">
-        <v>2.238915</v>
+        <v>0.608224</v>
       </c>
       <c r="I6">
-        <v>0.6851484233490556</v>
+        <v>0.1911300550679205</v>
       </c>
       <c r="J6">
-        <v>0.6851484233490555</v>
+        <v>0.1911300550679204</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>77.067047</v>
+        <v>71.84303666666666</v>
       </c>
       <c r="N6">
-        <v>231.201141</v>
+        <v>215.52911</v>
       </c>
       <c r="O6">
-        <v>0.3861000573861758</v>
+        <v>0.3032566891859479</v>
       </c>
       <c r="P6">
-        <v>0.3861000573861758</v>
+        <v>0.3032566891859479</v>
       </c>
       <c r="Q6">
-        <v>57.515522511335</v>
+        <v>14.56555304451556</v>
       </c>
       <c r="R6">
-        <v>517.6397026020151</v>
+        <v>131.08997740064</v>
       </c>
       <c r="S6">
-        <v>0.2645358455731182</v>
+        <v>0.05796146770382546</v>
       </c>
       <c r="T6">
-        <v>0.2645358455731182</v>
+        <v>0.05796146770382545</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3429553333333333</v>
+        <v>0.7050673333333334</v>
       </c>
       <c r="H7">
-        <v>1.028866</v>
+        <v>2.115202</v>
       </c>
       <c r="I7">
-        <v>0.3148515766509445</v>
+        <v>0.6646871460839683</v>
       </c>
       <c r="J7">
-        <v>0.3148515766509445</v>
+        <v>0.6646871460839682</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.47224833333333</v>
+        <v>27.85292233333333</v>
       </c>
       <c r="N7">
-        <v>70.41674499999999</v>
+        <v>83.55876699999999</v>
       </c>
       <c r="O7">
-        <v>0.1175941830038274</v>
+        <v>0.1175699887262562</v>
       </c>
       <c r="P7">
-        <v>0.1175941830038274</v>
+        <v>0.1175699887262562</v>
       </c>
       <c r="Q7">
-        <v>8.04993275124111</v>
+        <v>19.63818567510378</v>
       </c>
       <c r="R7">
-        <v>72.44939476117</v>
+        <v>176.743671075934</v>
       </c>
       <c r="S7">
-        <v>0.03702471392373476</v>
+        <v>0.07814726027157956</v>
       </c>
       <c r="T7">
-        <v>0.03702471392373476</v>
+        <v>0.07814726027157955</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.3429553333333333</v>
+        <v>0.7050673333333334</v>
       </c>
       <c r="H8">
-        <v>1.028866</v>
+        <v>2.115202</v>
       </c>
       <c r="I8">
-        <v>0.3148515766509445</v>
+        <v>0.6646871460839683</v>
       </c>
       <c r="J8">
-        <v>0.3148515766509445</v>
+        <v>0.6646871460839682</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>79.98248000000001</v>
       </c>
       <c r="O8">
-        <v>0.1335687184947269</v>
+        <v>0.1125380329259528</v>
       </c>
       <c r="P8">
-        <v>0.1335687184947269</v>
+        <v>0.1125380329259528</v>
       </c>
       <c r="Q8">
-        <v>9.143472696408889</v>
+        <v>18.79767796232889</v>
       </c>
       <c r="R8">
-        <v>82.29125426768002</v>
+        <v>169.17910166096</v>
       </c>
       <c r="S8">
-        <v>0.04205432160931093</v>
+        <v>0.0748025839314552</v>
       </c>
       <c r="T8">
-        <v>0.04205432160931093</v>
+        <v>0.07480258393145518</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.3429553333333333</v>
+        <v>0.7050673333333334</v>
       </c>
       <c r="H9">
-        <v>1.028866</v>
+        <v>2.115202</v>
       </c>
       <c r="I9">
-        <v>0.3148515766509445</v>
+        <v>0.6646871460839683</v>
       </c>
       <c r="J9">
-        <v>0.3148515766509445</v>
+        <v>0.6646871460839682</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>67.28694033333333</v>
+        <v>105.665011</v>
       </c>
       <c r="N9">
-        <v>201.860821</v>
+        <v>316.995033</v>
       </c>
       <c r="O9">
-        <v>0.3371024651306568</v>
+        <v>0.4460226472237104</v>
       </c>
       <c r="P9">
-        <v>0.3371024651306568</v>
+        <v>0.4460226472237104</v>
       </c>
       <c r="Q9">
-        <v>23.07641505099845</v>
+        <v>74.50094753240734</v>
       </c>
       <c r="R9">
-        <v>207.687735458986</v>
+        <v>670.508527791666</v>
       </c>
       <c r="S9">
-        <v>0.1061372426393073</v>
+        <v>0.2964655204719447</v>
       </c>
       <c r="T9">
-        <v>0.1061372426393073</v>
+        <v>0.2964655204719446</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.3429553333333333</v>
+        <v>0.7050673333333334</v>
       </c>
       <c r="H10">
-        <v>1.028866</v>
+        <v>2.115202</v>
       </c>
       <c r="I10">
-        <v>0.3148515766509445</v>
+        <v>0.6646871460839683</v>
       </c>
       <c r="J10">
-        <v>0.3148515766509445</v>
+        <v>0.6646871460839682</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.116759333333333</v>
+        <v>4.883238666666666</v>
       </c>
       <c r="N10">
-        <v>15.350278</v>
+        <v>14.649716</v>
       </c>
       <c r="O10">
-        <v>0.02563457598461312</v>
+        <v>0.02061264193813266</v>
       </c>
       <c r="P10">
-        <v>0.02563457598461312</v>
+        <v>0.02061264193813266</v>
       </c>
       <c r="Q10">
-        <v>1.754819902749778</v>
+        <v>3.443012064736889</v>
       </c>
       <c r="R10">
-        <v>15.793379124748</v>
+        <v>30.987108582632</v>
       </c>
       <c r="S10">
-        <v>0.008071086665533878</v>
+        <v>0.01370095814310811</v>
       </c>
       <c r="T10">
-        <v>0.008071086665533878</v>
+        <v>0.01370095814310811</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.3429553333333333</v>
+        <v>0.7050673333333334</v>
       </c>
       <c r="H11">
-        <v>1.028866</v>
+        <v>2.115202</v>
       </c>
       <c r="I11">
-        <v>0.3148515766509445</v>
+        <v>0.6646871460839683</v>
       </c>
       <c r="J11">
-        <v>0.3148515766509445</v>
+        <v>0.6646871460839682</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,338 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>77.067047</v>
+        <v>71.84303666666666</v>
       </c>
       <c r="N11">
-        <v>231.201141</v>
+        <v>215.52911</v>
       </c>
       <c r="O11">
-        <v>0.3861000573861758</v>
+        <v>0.3032566891859479</v>
       </c>
       <c r="P11">
-        <v>0.3861000573861758</v>
+        <v>0.3032566891859479</v>
       </c>
       <c r="Q11">
-        <v>26.43055479290067</v>
+        <v>50.65417828113556</v>
       </c>
       <c r="R11">
-        <v>237.874993136106</v>
+        <v>455.88760453022</v>
       </c>
       <c r="S11">
-        <v>0.1215642118130576</v>
+        <v>0.2015708232658807</v>
       </c>
       <c r="T11">
-        <v>0.1215642118130576</v>
+        <v>0.2015708232658807</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.152942</v>
+      </c>
+      <c r="H12">
+        <v>0.458826</v>
+      </c>
+      <c r="I12">
+        <v>0.1441827988481113</v>
+      </c>
+      <c r="J12">
+        <v>0.1441827988481113</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>27.85292233333333</v>
+      </c>
+      <c r="N12">
+        <v>83.55876699999999</v>
+      </c>
+      <c r="O12">
+        <v>0.1175699887262562</v>
+      </c>
+      <c r="P12">
+        <v>0.1175699887262562</v>
+      </c>
+      <c r="Q12">
+        <v>4.259881647504666</v>
+      </c>
+      <c r="R12">
+        <v>38.338934827542</v>
+      </c>
+      <c r="S12">
+        <v>0.01695157003509251</v>
+      </c>
+      <c r="T12">
+        <v>0.01695157003509251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.152942</v>
+      </c>
+      <c r="H13">
+        <v>0.458826</v>
+      </c>
+      <c r="I13">
+        <v>0.1441827988481113</v>
+      </c>
+      <c r="J13">
+        <v>0.1441827988481113</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>26.66082666666667</v>
+      </c>
+      <c r="N13">
+        <v>79.98248000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.1125380329259528</v>
+      </c>
+      <c r="P13">
+        <v>0.1125380329259528</v>
+      </c>
+      <c r="Q13">
+        <v>4.077560152053334</v>
+      </c>
+      <c r="R13">
+        <v>36.69804136848001</v>
+      </c>
+      <c r="S13">
+        <v>0.01622604856412477</v>
+      </c>
+      <c r="T13">
+        <v>0.01622604856412478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.152942</v>
+      </c>
+      <c r="H14">
+        <v>0.458826</v>
+      </c>
+      <c r="I14">
+        <v>0.1441827988481113</v>
+      </c>
+      <c r="J14">
+        <v>0.1441827988481113</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>105.665011</v>
+      </c>
+      <c r="N14">
+        <v>316.995033</v>
+      </c>
+      <c r="O14">
+        <v>0.4460226472237104</v>
+      </c>
+      <c r="P14">
+        <v>0.4460226472237104</v>
+      </c>
+      <c r="Q14">
+        <v>16.160618112362</v>
+      </c>
+      <c r="R14">
+        <v>145.445563011258</v>
+      </c>
+      <c r="S14">
+        <v>0.06430879362635836</v>
+      </c>
+      <c r="T14">
+        <v>0.06430879362635836</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.152942</v>
+      </c>
+      <c r="H15">
+        <v>0.458826</v>
+      </c>
+      <c r="I15">
+        <v>0.1441827988481113</v>
+      </c>
+      <c r="J15">
+        <v>0.1441827988481113</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.883238666666666</v>
+      </c>
+      <c r="N15">
+        <v>14.649716</v>
+      </c>
+      <c r="O15">
+        <v>0.02061264193813266</v>
+      </c>
+      <c r="P15">
+        <v>0.02061264193813266</v>
+      </c>
+      <c r="Q15">
+        <v>0.7468522881573333</v>
+      </c>
+      <c r="R15">
+        <v>6.721670593416</v>
+      </c>
+      <c r="S15">
+        <v>0.002971988406293925</v>
+      </c>
+      <c r="T15">
+        <v>0.002971988406293926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.152942</v>
+      </c>
+      <c r="H16">
+        <v>0.458826</v>
+      </c>
+      <c r="I16">
+        <v>0.1441827988481113</v>
+      </c>
+      <c r="J16">
+        <v>0.1441827988481113</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>71.84303666666666</v>
+      </c>
+      <c r="N16">
+        <v>215.52911</v>
+      </c>
+      <c r="O16">
+        <v>0.3032566891859479</v>
+      </c>
+      <c r="P16">
+        <v>0.3032566891859479</v>
+      </c>
+      <c r="Q16">
+        <v>10.98781771387333</v>
+      </c>
+      <c r="R16">
+        <v>98.89035942486001</v>
+      </c>
+      <c r="S16">
+        <v>0.04372439821624174</v>
+      </c>
+      <c r="T16">
+        <v>0.04372439821624174</v>
       </c>
     </row>
   </sheetData>
